--- a/Task 2 Data Validation Types.xlsx
+++ b/Task 2 Data Validation Types.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_15\excel\task\task 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_15\Github data\task 2 Data Validation types\da15_first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E429151F-2D75-4E7D-B7C3-9A7E08900F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1653B2B-7779-4542-B813-108656FE2642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{53900778-7F5A-45B0-A243-BDEFF13E4084}"/>
   </bookViews>
@@ -349,7 +349,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\,\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\,\ hh:mm\ AM/PM"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -588,11 +588,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,7 +602,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -614,10 +610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -626,16 +618,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -984,78 +979,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>985134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1369696</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>1966973</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>1145699</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>968645</v>
       </c>
     </row>
@@ -1079,185 +1074,185 @@
   <dimension ref="A3:N12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>2019</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>571</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>795.32</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>731</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>548.4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>950</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>758</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>969</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>2020</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>513.35</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>330.38</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>484.34</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>986</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>391.37</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>489.47</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>295.27</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>2021</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>529.47</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>465.12</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>267</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>335.25</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>668</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>945</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>2022</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>677.15</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>430</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>620.49</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>689</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>829</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>372.15</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>423.33</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>2023</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>625.48</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>577</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>475</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>766</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>462</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>565</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E12" s="14"/>
+      <c r="E12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1279,7 +1274,7 @@
   <dimension ref="A2:Q10"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,98 +1289,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>2019</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>571</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>795.32</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>731</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>548.4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>950</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>758</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>969</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>2021</v>
       </c>
       <c r="K6">
@@ -1418,106 +1413,106 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>2020</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>513.35</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>330.38</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>484.34</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>986</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>391.37</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>489.47</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>295.27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>2021</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>529.47</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>465.12</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>267</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>335.25</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>668</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>945</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>2022</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>677.15</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>430</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>620.49</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>689</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <v>829</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>372.15</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>423.33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>2023</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>625.48</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>577</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>475</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>766</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>462</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="9">
         <v>565</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>574</v>
       </c>
     </row>
@@ -1544,226 +1539,226 @@
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="19" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="13">
         <v>10248</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="14">
         <v>5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>35099</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>10249</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="17">
         <v>6</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>36346</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>10250</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="14">
         <v>4</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>36076</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="16">
         <v>10251</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>35681</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>10252</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="14">
         <v>4</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>36655</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="16">
         <v>10253</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="17">
         <v>3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>35256</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="13">
         <v>10254</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="14">
         <v>5</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>35987</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="16">
         <v>10255</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="17">
         <v>9</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>34892</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>10256</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>35626</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="16">
         <v>10257</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="17">
         <v>4</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>36357</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>10258</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="15">
         <v>36816</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1790,7 +1785,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,247 +1795,247 @@
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="F2" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="29">
         <v>33725.333333333336</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="30">
         <v>33830.583333333336</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="29">
         <v>33695.5</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="30">
         <v>34092.416666666664</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="29">
         <v>34259.333333333336</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="30">
         <v>34259.458333333336</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="29">
         <v>34336.5</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="30">
         <v>34398.375</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
+      <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="29">
         <v>34653.333333333336</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2063,98 +2058,98 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="33">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="34" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="23">
         <v>3</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="33">
+      <c r="B9" s="25">
         <v>4</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="31">
+      <c r="B10" s="23">
         <v>5</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="33">
+      <c r="B11" s="25">
         <v>6</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="31">
+      <c r="B12" s="23">
         <v>7</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <v>8</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="31">
+      <c r="B14" s="23">
         <v>9</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="33" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2179,7 +2174,7 @@
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2190,132 +2185,132 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="31">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="33">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="31">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="33">
+      <c r="B10" s="25">
         <v>6</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="31">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="33">
+      <c r="B12" s="25">
         <v>8</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="31">
+      <c r="B13" s="23">
         <v>9</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2326,7 +2321,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ivalid input" error="input should be in text" promptTitle="name should be in text" sqref="C5:D15" xr:uid="{0C8E9371-F327-47AA-9573-C9BFF753A26B}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ivalid input" error="input should be in text" promptTitle="name should be in text" prompt="only text names" sqref="C5:D15" xr:uid="{0C8E9371-F327-47AA-9573-C9BFF753A26B}">
       <formula1>ISTEXT(C5:D15)</formula1>
     </dataValidation>
   </dataValidations>
